--- a/src/main/resources/SampleData.xlsx
+++ b/src/main/resources/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t xml:space="preserve">sample1</t>
   </si>
@@ -41,9 +41,15 @@
     <t xml:space="preserve">sample121</t>
   </si>
   <si>
+    <t xml:space="preserve">Manish</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample122</t>
   </si>
   <si>
+    <t xml:space="preserve">Dua</t>
+  </si>
+  <si>
     <t xml:space="preserve">}</t>
   </si>
   <si>
@@ -53,12 +59,21 @@
     <t xml:space="preserve">sample2</t>
   </si>
   <si>
+    <t xml:space="preserve">[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">[</t>
-  </si>
-  <si>
     <t xml:space="preserve">data1</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t xml:space="preserve">data3</t>
   </si>
   <si>
-    <t xml:space="preserve">]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{</t>
   </si>
   <si>
@@ -81,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample3</t>
   </si>
   <si>
     <t xml:space="preserve">sample4</t>
@@ -250,11 +259,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,10 +292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D32"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +316,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>6786868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,40 +331,69 @@
       <c r="D5" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <v>12312</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
+      <c r="C12" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="3"/>
@@ -398,35 +436,35 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -461,15 +499,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +527,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +548,7 @@
   </sheetPr>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -526,33 +564,33 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,53 +605,53 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2" t="b">
+      <c r="C19" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>1</v>
@@ -621,15 +659,15 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>1</v>
@@ -637,12 +675,12 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>1</v>
@@ -650,40 +688,40 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -744,50 +782,50 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -795,7 +833,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -803,7 +841,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -811,22 +849,22 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>1</v>
@@ -834,24 +872,24 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>10</v>
@@ -859,20 +897,20 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>1</v>
@@ -880,25 +918,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>1</v>
@@ -906,17 +944,17 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>1</v>
@@ -924,7 +962,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.3</v>
@@ -932,7 +970,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3.4</v>
@@ -940,20 +978,20 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,12 +1006,12 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SampleData.xlsx
+++ b/src/main/resources/SampleData.xlsx
@@ -352,7 +352,8 @@
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -640,7 +641,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="b">
+      <c r="C19" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/SampleData.xlsx
+++ b/src/main/resources/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="Testcase3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Testcase4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Testcase5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Testcase6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Testcase7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t xml:space="preserve">sample1</t>
   </si>
@@ -38,6 +40,51 @@
     <t xml:space="preserve">sample12</t>
   </si>
   <si>
+    <t xml:space="preserve">sample13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/02/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample121</t>
   </si>
   <si>
@@ -50,97 +97,49 @@
     <t xml:space="preserve">Dua</t>
   </si>
   <si>
-    <t xml:space="preserve">}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[</t>
-  </si>
-  <si>
-    <t xml:space="preserve">]</t>
-  </si>
-  <si>
     <t xml:space="preserve">sample3</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">}]</t>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World</t>
   </si>
   <si>
     <t xml:space="preserve">sample4</t>
   </si>
   <si>
+    <t xml:space="preserve">Testing1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample61</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alok</t>
   </si>
   <si>
-    <t xml:space="preserve">Ranjan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample61</t>
-  </si>
-  <si>
     <t xml:space="preserve">sample62</t>
   </si>
   <si>
-    <t xml:space="preserve">sample621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample6221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample6222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample623</t>
-  </si>
-  <si>
     <t xml:space="preserve">sample63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample43</t>
   </si>
   <si>
     <t xml:space="preserve">sample64</t>
@@ -263,11 +262,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,10 +291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E32"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,87 +322,53 @@
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="4"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -421,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,35 +402,27 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -484,10 +441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,35 +457,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
+      <c r="B2" s="0" t="n">
+        <v>12123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
-        <v>12123</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
-        <v>123123</v>
+        <v>12323123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>12323123</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>12</v>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +496,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E32"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,169 +511,27 @@
       <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
-        <v>12123</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -742,10 +549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F41"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,6 +565,61 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -766,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>678689</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,12 +641,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +662,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,215 +675,380 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>13</v>
+      <c r="C11" s="0" t="n">
+        <v>1212</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="n">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
       <c r="C15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
       <c r="C16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>12</v>
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>24</v>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="B22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D30" s="0" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>1</v>
+      <c r="D32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>2.3</v>
+      <c r="D33" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="0" t="s">
-        <v>8</v>
+      <c r="D35" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="s">
-        <v>8</v>
+      <c r="D36" s="0" t="n">
+        <v>34535335335</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>11</v>
+      <c r="D37" s="0" t="n">
+        <v>67555765757</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0" t="n">
-        <v>34535335335</v>
+      <c r="D38" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="0" t="n">
-        <v>67555765757</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/resources/SampleData.xlsx
+++ b/src/main/resources/SampleData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t xml:space="preserve">sample1</t>
   </si>
@@ -88,19 +88,16 @@
     <t xml:space="preserve">sample121</t>
   </si>
   <si>
-    <t xml:space="preserve">Manish</t>
+    <t xml:space="preserve">Hello</t>
   </si>
   <si>
     <t xml:space="preserve">sample122</t>
   </si>
   <si>
-    <t xml:space="preserve">Dua</t>
+    <t xml:space="preserve">Bhai</t>
   </si>
   <si>
     <t xml:space="preserve">sample3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello</t>
   </si>
   <si>
     <t xml:space="preserve">World</t>
@@ -322,7 +319,8 @@
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -569,17 +567,20 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="b">
+      <c r="C3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="b">
+      <c r="C5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -606,8 +607,8 @@
   </sheetPr>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,7 +665,8 @@
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -707,13 +709,13 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +725,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>15</v>
@@ -731,22 +733,22 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
@@ -860,7 +862,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
@@ -868,7 +870,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -876,7 +878,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -884,7 +886,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -897,12 +899,12 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>1</v>
@@ -910,15 +912,15 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -927,7 +929,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>10</v>
@@ -935,10 +937,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +950,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>1</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false">TRUE()</f>
@@ -965,7 +967,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -974,7 +976,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>1</v>
@@ -982,17 +984,17 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>1</v>
@@ -1000,7 +1002,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2.3</v>
@@ -1008,7 +1010,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>3.4</v>
@@ -1026,7 +1028,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>10</v>
